--- a/資料/設計書/メモ/モグラ出現数.xlsx
+++ b/資料/設計書/メモ/モグラ出現数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\設計書\メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D8F4B6-425C-4CC4-A626-150AAFB501FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CCD4D6-09F6-4E67-BA92-EFE9129C053B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5040" yWindow="380" windowWidth="14160" windowHeight="8800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>モグラ出現数</t>
     <rPh sb="3" eb="5">
@@ -161,6 +161,10 @@
     <t>norm.dist</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -238,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -251,6 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1862,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2614,7 +2619,13 @@
       <c r="C50" s="1">
         <v>55</v>
       </c>
-      <c r="I50" s="4"/>
+      <c r="H50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="8">
+        <f>SUM(I6:I49)</f>
+        <v>0.99745354267821051</v>
+      </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="1">
